--- a/程丹丹项目日报.xlsx
+++ b/程丹丹项目日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="8850"/>
+    <workbookView windowWidth="19095" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <t>项目开发人员日报ZZ-JY1702-02</t>
   </si>
   <si>
-    <t>所属部门：html5-1702      项目名称：网易暴雪周边商城　　　　 　　报告人：程丹丹                   报告日:    2017 年 5  月 24  日</t>
+    <t>所属部门：html5-1702      项目名称：网易暴雪周边商城　　　　 　　报告人：程丹丹                   报告日:    2017 年 5  月 25  日</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -43,34 +43,34 @@
   </si>
   <si>
     <t>网易暴雪周边商城</t>
-  </si>
-  <si>
-    <t>项目开发环境准备（git/golp/sass）                    项目布局构思，                        项目首页布局</t>
-  </si>
-  <si>
-    <t>首页已完成50%                       今天任务基本完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网页写的比较慢                对布局有点不是很明确         不知如何下手           </t>
-  </si>
-  <si>
-    <t>根据老师讲的案例     进行学习</t>
-  </si>
-  <si>
-    <t>明日工作</t>
-  </si>
-  <si>
-    <t>工作内容</t>
-  </si>
-  <si>
-    <t>完成计划</t>
   </si>
   <si>
     <t>项目首页布局                                                                      编写内容模板                                                          
 模拟写数据库</t>
   </si>
   <si>
-    <t>尽全力完成计划</t>
+    <t xml:space="preserve">遇到困难点解决不了          编写数据库                              编写模块                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在数据的处理方面很模糊        </t>
+  </si>
+  <si>
+    <t>还没对策</t>
+  </si>
+  <si>
+    <t>明日工作</t>
+  </si>
+  <si>
+    <t>工作内容</t>
+  </si>
+  <si>
+    <t>完成计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解决难点 写信息注册表 购物车                                 </t>
+  </si>
+  <si>
+    <t>百分之80</t>
   </si>
 </sst>
 </file>
@@ -79,8 +79,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -245,23 +245,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +276,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,72 +450,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,96 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,149 +684,149 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -836,9 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1233,7 +1230,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1262,93 +1259,93 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="38.1" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="38.1" customHeight="1" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="79" customHeight="1" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="38.1" customHeight="1" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="130.5" customHeight="1" spans="1:7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
